--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1327786.085170664</v>
+        <v>1325898.503654262</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>114.0138441087954</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>136.0464559706087</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.21854402607422</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>125.5622780362991</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>26.40868448976566</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>54.0322354216695</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.92375604299535</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>265.0300400044453</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>180.2484107694632</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>27.60424748687867</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.9763618019593</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139863</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>75.80960945454478</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>250.0068403603048</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>70.43533402631046</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>73.00837259454046</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467373</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.71233187893833</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>33.35146980185851</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>115.5269768002182</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801201</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437409</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897897</v>
+        <v>22.14609241444476</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571484</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>124.8351908673405</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463158</v>
+        <v>42.28735533463045</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898712</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1533.27522618254</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>1164.312709242129</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2504.699738952141</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2250.937953590233</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1919.875066246662</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1919.875066246662</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1919.875066246662</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1919.875066246662</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1395.511531185079</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>108.5209973978084</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>108.5209973978084</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782189</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1971.274048960885</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>1095.807382993971</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>737.541684387221</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
         <v>548.527081850681</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1971.274048960885</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>1971.274048960885</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y8" t="n">
-        <v>1971.274048960885</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229.739153672332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>229.739153672332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>229.739153672332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>229.739153672332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>229.739153672332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>229.739153672332</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5024,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.3210135240262</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655736</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>727.1135926675563</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.3210135240262</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>468.5954956259881</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.002216560966</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V16" t="n">
-        <v>986.002216560966</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W16" t="n">
-        <v>696.5850465240054</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>468.5954956259881</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.5954956259881</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5601,16 +5601,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201014</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201014</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201014</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201014</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1427.769468511124</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1227.849458426676</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1004.064043216182</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609663</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550795</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181188</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201014</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201014</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,22 +5832,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766206</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1908.095276920733</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2187.635342139431</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2392.65782292164</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>465.7659634441653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>465.7659634441653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,13 +5926,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
@@ -5944,16 +5944,16 @@
         <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811259</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441653</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>465.7659634441653</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>465.7659634441653</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028547</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1401.227046437763</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1401.227046437763</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1112.098407651321</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1112.098407651321</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>822.6812376143602</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201024</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201024</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201024</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>213.9110074201024</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6379,19 +6379,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609671</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550802</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181197</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201024</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201024</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,13 +6482,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.5190452905597</v>
+        <v>439.532429954217</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440236</v>
+        <v>326.3571123076808</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440236</v>
+        <v>232.0013381767157</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430014</v>
+        <v>232.0013381767157</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>232.0013381767157</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>119.5868817779068</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899271</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970148</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465077</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1353.323349073824</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1119.667044318234</v>
+        <v>902.680428981892</v>
       </c>
       <c r="X31" t="n">
-        <v>947.4383587015877</v>
+        <v>730.4517433652453</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.4066448394285</v>
+        <v>565.420029503086</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982964</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6859,13 +6859,13 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,10 +7117,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,16 +7248,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>181.9314425141225</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>592.8217113586352</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
         <v>1514.038914395485</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229672</v>
@@ -7315,28 +7315,28 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,73 +7388,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.088769018224</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>433.7515527292971</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>43.6598726146251</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9249,19 +9249,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>176.7176547498453</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9480,16 +9480,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>145.2351313103783</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>52.497333613053</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>403.7628319612156</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>43.65987261462534</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>91.23759968302096</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>56.27045929666856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>192.3581855871787</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>91.43721164408305</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>36.51615797628617</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>29.89407122271381</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>39.52901837748232</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>75.60710042367189</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>79.43092547709071</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>101.2084781046649</v>
+        <v>82.39383318338612</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>29.89407122271297</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896552</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437426</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>71.56447932453439</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571501</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>72.09919582793033</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.156852519345171e-13</v>
+        <v>8.739675649849232e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.619301365</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>952727.6193013648</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>952727.6193013648</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>952727.6193013649</v>
+        <v>952727.6193013648</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>990631.0055595118</v>
+        <v>990631.0055595117</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
         <v>451572.973425356</v>
@@ -26323,16 +26323,16 @@
         <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114795</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114797</v>
@@ -26347,13 +26347,13 @@
         <v>451572.9734253563</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253564</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253562</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.6053028456</v>
       </c>
     </row>
     <row r="4">
@@ -26430,10 +26430,10 @@
         <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.66962143909</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,7 +26442,7 @@
         <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563567</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
@@ -26451,10 +26451,10 @@
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378028.9421038205</v>
+        <v>-378028.9421038206</v>
       </c>
       <c r="C6" t="n">
         <v>211938.9371107239</v>
@@ -26528,34 +26528,34 @@
         <v>211938.9371107238</v>
       </c>
       <c r="E6" t="n">
-        <v>-202061.0663355722</v>
+        <v>-202158.5254615444</v>
       </c>
       <c r="F6" t="n">
-        <v>323098.9701413238</v>
+        <v>323001.5110153519</v>
       </c>
       <c r="G6" t="n">
-        <v>323098.970141324</v>
+        <v>323001.5110153517</v>
       </c>
       <c r="H6" t="n">
-        <v>323098.9701413239</v>
+        <v>323001.5110153515</v>
       </c>
       <c r="I6" t="n">
-        <v>323098.9701413241</v>
+        <v>323001.5110153521</v>
       </c>
       <c r="J6" t="n">
-        <v>146675.7509487309</v>
+        <v>146578.2918227588</v>
       </c>
       <c r="K6" t="n">
-        <v>273503.245111093</v>
+        <v>273484.7513731589</v>
       </c>
       <c r="L6" t="n">
-        <v>306050.5039417045</v>
+        <v>306050.5039417044</v>
       </c>
       <c r="M6" t="n">
-        <v>181592.3955087342</v>
+        <v>181592.3955087341</v>
       </c>
       <c r="N6" t="n">
-        <v>316393.4107425714</v>
+        <v>316393.4107425713</v>
       </c>
       <c r="O6" t="n">
         <v>316393.4107425712</v>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,19 +26753,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.92863350108368</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>251.2590476622121</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>80.40186438704913</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>264.3044543105168</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>239.7106137347085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>28.06971808504603</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>113.2775668373814</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>142.1113494150889</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>100.2428517665623</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>201.6819593027986</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>121.0112255313337</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>744.1759297797634</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>250.7532875461497</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>233.2481640954525</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543134</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>259.5907485445777</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412267</v>
+        <v>67.7110267941225</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004319</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>736.9574053592285</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>201.6157249145282</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>85.570051569532</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>618.5494866776701</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>179.2506324680951</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
